--- a/biology/Botanique/Muscat_d'Alexandrie/Muscat_d'Alexandrie.xlsx
+++ b/biology/Botanique/Muscat_d'Alexandrie/Muscat_d'Alexandrie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Muscat_d%27Alexandrie</t>
+          <t>Muscat_d'Alexandrie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le muscat d'Alexandrie est un cépage de raisin blanc consommé en tant que raisin de table ou de cuve pour produire essentiellement des vins doux.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Muscat_d%27Alexandrie</t>
+          <t>Muscat_d'Alexandrie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,10 +526,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Origine
-Originaire de Grèce[1], ou de Syrie (d'où son nom Autrichien de Damaszener Muskat, soit Muscat de Damas) le muscat d'Alexandrie est traditionnellement cultivé en treilles dans le Bassin-Méditerranéen depuis l'Antiquité[2].
-Répartition
-La plantation de ce cépage atteint un total mondial d'environ 55 000 hectares, répartis dans une dizaine de pays majoritairement. En Australie on l'appelle "lexia" (diminutif d'Alexandrie). Il produit le Moscatel ou Moscatell d’Espagne (Moscatel de Paja-Rancio) et du Portugal (muscat de Setúbal ou moscatel de Setúbal) ainsi que le muscat de Sicile : DOC Moscato di Siracusa, moscato di Trentino, moscato di Noto mousseux et moscato di Pantelleria (passito ou mousseux)[3].
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire de Grèce, ou de Syrie (d'où son nom Autrichien de Damaszener Muskat, soit Muscat de Damas) le muscat d'Alexandrie est traditionnellement cultivé en treilles dans le Bassin-Méditerranéen depuis l'Antiquité.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Muscat_d'Alexandrie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat_d%27Alexandrie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Origine et répartition géographique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>La plantation de ce cépage atteint un total mondial d'environ 55 000 hectares, répartis dans une dizaine de pays majoritairement. En Australie on l'appelle "lexia" (diminutif d'Alexandrie). Il produit le Moscatel ou Moscatell d’Espagne (Moscatel de Paja-Rancio) et du Portugal (muscat de Setúbal ou moscatel de Setúbal) ainsi que le muscat de Sicile : DOC Moscato di Siracusa, moscato di Trentino, moscato di Noto mousseux et moscato di Pantelleria (passito ou mousseux).
 Chili avec une superficie plantée de 7 800 hectares (6 100 hectares pour le vin, 1 700 hectares pour le pisco).
 Maroc avec une superficie plantée de 5 000 hectares
 Australie avec une superficie plantée de 3 580 hectares
@@ -532,66 +584,37 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Muscat_d%27Alexandrie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Muscat_d'Alexandrie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Muscat_d%27Alexandrie</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Caractères ampélographiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Extrémité du jeune rameau duveteux blanc à liseré carminé.
 Jeunes feuilles aranéeuses, à plages bronzées.
 Feuilles adultes à cinq lobes à sinus latéraux supérieurs très étroits, avec un sinus pétilaire en lyre étroits, des dents anguleuses, en deux séries, très étroites, un limbe pubescent</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Muscat_d%27Alexandrie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Muscat_d%27Alexandrie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Aptitudes culturales</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maturité est de troisième époque tardive : 3 semaines et demie après le chasselas.
-</t>
         </is>
       </c>
     </row>
@@ -601,7 +624,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Muscat_d%27Alexandrie</t>
+          <t>Muscat_d'Alexandrie</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,13 +639,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Potentiel technologique</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est cylindrique, longue, étroite et compacte. La chair des baies est ferme, juteuse, très sucrée. Le cépage possède une saveur aromatique musquée. 
-C'est un cépage moyennement vigoureux. Il est très sensible à l'oïdium, au mildiou, à la pourriture grise, aux vers de la grappe et aux acariens. Il est remarquablement résistant à la sécheresse.
+          <t>Aptitudes culturales</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maturité est de troisième époque tardive : 3 semaines et demie après le chasselas.
 </t>
         </is>
       </c>
@@ -633,7 +657,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Muscat_d%27Alexandrie</t>
+          <t>Muscat_d'Alexandrie</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -648,10 +672,46 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Potentiel technologique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les grappes et les baies sont de taille moyenne. La grappe est cylindrique, longue, étroite et compacte. La chair des baies est ferme, juteuse, très sucrée. Le cépage possède une saveur aromatique musquée. 
+C'est un cépage moyennement vigoureux. Il est très sensible à l'oïdium, au mildiou, à la pourriture grise, aux vers de la grappe et aux acariens. Il est remarquablement résistant à la sécheresse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Muscat_d'Alexandrie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Muscat_d%27Alexandrie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscat d'Alexandrie est connu sous les noms de :
 Acherfield's early muscat
@@ -729,7 +789,7 @@
 Zibibbo
 Zibibbo de Pantelleria
 Zibibbu di Sicilia
-Le Zibibbo de Pantelleria est Patrimoine culturel immatériel de l'humanité[4].
+Le Zibibbo de Pantelleria est Patrimoine culturel immatériel de l'humanité.
 </t>
         </is>
       </c>
